--- a/biology/Zoologie/Ermite_du_Tapajos/Ermite_du_Tapajos.xlsx
+++ b/biology/Zoologie/Ermite_du_Tapajos/Ermite_du_Tapajos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaethornis aethopygus
 L'Ermite du Tapajos (Phaethornis aethopygus) est une espèce de colibris de la sous-famille des Phaethornithinae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du Brésil qui peuple le centre du pays dans une région bordée à l'ouest par le Rio Tapajós.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce colibri fréquente les forêts plus ou moins dégradées de la Terra firme, souvent le long des cours d'eau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce colibri fréquente les forêts plus ou moins dégradées de la Terra firme, souvent le long des cours d'eau.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2009, Piacentini et al. montrent que le taxon décrit en 1950 par Zimmer en tant que Phaethornis longuemareus aethopyga, n'est ni un hybride de P. ruber et P. rupurumii amazonicus, ni une sous-espèce, mais bien une espèce séparée. Ils démontrent qu'elle possède des caractéristiques physiques et sociales (aire de parade) uniques et doit donc être traitée comme une espèce à part entière Phaethornis aethopyga, Zimmer, 1950.
 </t>
